--- a/reports/brutal_new_25_03_2020_23_02_17.xlsx
+++ b/reports/brutal_new_25_03_2020_23_02_17.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\raven-extension\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
     <sheet name="Analogies" sheetId="2" r:id="rId2"/>
     <sheet name="Transformations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -486,8 +491,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,13 +515,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -546,21 +571,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -607,7 +647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,9 +679,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,6 +714,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,26 +890,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="7" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -913,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.6960786249736867</v>
+        <v>0.69607862497368667</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -928,10 +965,10 @@
         <v>113</v>
       </c>
       <c r="J2">
-        <v>0.8744892002335085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.87448920023350851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -945,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0.6856507230255839</v>
+        <v>0.68565072302558394</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -960,10 +997,10 @@
         <v>113</v>
       </c>
       <c r="J3">
-        <v>0.751004016064257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.75100401606425704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -977,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.810403832991102</v>
+        <v>0.81040383299110197</v>
       </c>
       <c r="F4" t="s">
         <v>73</v>
@@ -992,10 +1029,10 @@
         <v>113</v>
       </c>
       <c r="J4">
-        <v>0.9349808767284495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.93498087672844954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0.8566468253968254</v>
+        <v>0.85664682539682535</v>
       </c>
       <c r="F5" t="s">
         <v>74</v>
@@ -1027,7 +1064,7 @@
         <v>0.9112662013958126</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>0.5100812460233639</v>
+        <v>0.51008124602336391</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -1056,10 +1093,10 @@
         <v>113</v>
       </c>
       <c r="J6">
-        <v>0.9167450611476952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.91674506114769516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.9233554616777309</v>
+        <v>0.92335546167773086</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -1088,10 +1125,10 @@
         <v>113</v>
       </c>
       <c r="J7">
-        <v>0.9591169255928046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.95911692559280459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9422350188950873</v>
+        <v>0.94223501889508732</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -1120,10 +1157,10 @@
         <v>113</v>
       </c>
       <c r="J8">
-        <v>0.9820957406709385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.98209574067093852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0.8251819342872991</v>
+        <v>0.82518193428729913</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -1152,10 +1189,10 @@
         <v>113</v>
       </c>
       <c r="J9">
-        <v>0.9608433734939759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.96084337349397586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1187,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>0.8896015283842795</v>
+        <v>0.88960152838427953</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1216,10 +1253,10 @@
         <v>113</v>
       </c>
       <c r="J11">
-        <v>0.9697459584295612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.96974595842956124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>0.5003006373109518</v>
+        <v>0.50030063731095176</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -1248,10 +1285,10 @@
         <v>113</v>
       </c>
       <c r="J12">
-        <v>0.8670287044220326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.86702870442203261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1265,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.5967164317727914</v>
+        <v>0.59671643177279143</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -1280,10 +1317,10 @@
         <v>113</v>
       </c>
       <c r="J13">
-        <v>0.7150227617602428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.71502276176024282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0.9906648726755353</v>
+        <v>0.99066487267553527</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1312,10 +1349,10 @@
         <v>113</v>
       </c>
       <c r="J14">
-        <v>0.9887027658745617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.98870276587456174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>0.9242077752368507</v>
+        <v>0.92420777523685071</v>
       </c>
       <c r="F15" t="s">
         <v>73</v>
@@ -1344,10 +1381,10 @@
         <v>113</v>
       </c>
       <c r="J15">
-        <v>0.9586913417052214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.95869134170522141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.9708333333333333</v>
+        <v>0.97083333333333333</v>
       </c>
       <c r="F16" t="s">
         <v>73</v>
@@ -1376,10 +1413,10 @@
         <v>113</v>
       </c>
       <c r="J16">
-        <v>0.9866369710467706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.98663697104677062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>0.824687800192123</v>
+        <v>0.82468780019212296</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -1408,10 +1445,10 @@
         <v>113</v>
       </c>
       <c r="J17">
-        <v>0.931415360904187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.93141536090418697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.781750924784217</v>
+        <v>0.78175092478421704</v>
       </c>
       <c r="F18" t="s">
         <v>74</v>
@@ -1440,10 +1477,10 @@
         <v>113</v>
       </c>
       <c r="J18">
-        <v>0.874162323157111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.87416232315711095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>0.7699154428126391</v>
+        <v>0.76991544281263913</v>
       </c>
       <c r="F19" t="s">
         <v>74</v>
@@ -1472,10 +1509,10 @@
         <v>113</v>
       </c>
       <c r="J19">
-        <v>0.9726699369306236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.97266993693062365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1489,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>0.9299258037922506</v>
+        <v>0.92992580379225065</v>
       </c>
       <c r="F20" t="s">
         <v>73</v>
@@ -1504,10 +1541,10 @@
         <v>113</v>
       </c>
       <c r="J20">
-        <v>0.9906958712928862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0.99069587129288617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>0.8574784237668592</v>
+        <v>0.85747842376685923</v>
       </c>
       <c r="F21" t="s">
         <v>74</v>
@@ -1536,10 +1573,10 @@
         <v>113</v>
       </c>
       <c r="J21">
-        <v>0.9625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1553,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>0.6613983707578185</v>
+        <v>0.66139837075781849</v>
       </c>
       <c r="F22" t="s">
         <v>73</v>
@@ -1568,10 +1605,10 @@
         <v>113</v>
       </c>
       <c r="J22">
-        <v>0.9821580288870009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.98215802888700088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1600,10 +1637,10 @@
         <v>113</v>
       </c>
       <c r="J23">
-        <v>0.9174454828660437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0.91744548286604366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1617,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>0.7667351303832213</v>
+        <v>0.76673513038322127</v>
       </c>
       <c r="F24" t="s">
         <v>73</v>
@@ -1632,10 +1669,10 @@
         <v>113</v>
       </c>
       <c r="J24">
-        <v>0.9408502772643254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.94085027726432535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>0.860497298296401</v>
+        <v>0.86049729829640098</v>
       </c>
       <c r="F25" t="s">
         <v>73</v>
@@ -1667,7 +1704,7 @@
         <v>0.9569832402234637</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>0.8384447939469999</v>
+        <v>0.83844479394699989</v>
       </c>
       <c r="F26" t="s">
         <v>77</v>
@@ -1696,42 +1733,42 @@
         <v>113</v>
       </c>
       <c r="J26">
-        <v>0.923856939427468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="2" customFormat="1">
-      <c r="A27" s="1" t="s">
+        <v>0.92385693942746805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>7</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.9486900642609986</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="4">
+        <v>0.94869006426099856</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.932050362807239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="I27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.93205036280723896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1760,10 +1797,10 @@
         <v>113</v>
       </c>
       <c r="J28">
-        <v>0.9856396907586525</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.98563969075865254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>0.7767756677605306</v>
+        <v>0.77677566776053064</v>
       </c>
       <c r="F29" t="s">
         <v>79</v>
@@ -1792,10 +1829,10 @@
         <v>113</v>
       </c>
       <c r="J29">
-        <v>0.9779261635901496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.97792616359014961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1809,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>0.9511944026002739</v>
+        <v>0.95119440260027388</v>
       </c>
       <c r="F30" t="s">
         <v>80</v>
@@ -1827,7 +1864,7 @@
         <v>0.9830456140910051</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>0.9720359762992825</v>
+        <v>0.97203597629928251</v>
       </c>
       <c r="F31" t="s">
         <v>79</v>
@@ -1859,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1888,10 +1925,10 @@
         <v>113</v>
       </c>
       <c r="J32">
-        <v>0.9253511353826971</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0.92535113538269709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1905,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.8292861687360278</v>
+        <v>0.82928616873602778</v>
       </c>
       <c r="F33" t="s">
         <v>82</v>
@@ -1920,10 +1957,10 @@
         <v>113</v>
       </c>
       <c r="J33">
-        <v>0.9248115474592724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0.92481154745927241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1952,10 +1989,10 @@
         <v>113</v>
       </c>
       <c r="J34">
-        <v>0.7679191919191919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>0.76791919191919189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,7 +2006,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>0.7317845225579376</v>
+        <v>0.73178452255793758</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
@@ -1984,10 +2021,10 @@
         <v>113</v>
       </c>
       <c r="J35">
-        <v>0.9001864922247088</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>0.90018649222470881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2001,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.8734653433531334</v>
+        <v>0.87346534335313342</v>
       </c>
       <c r="F36" t="s">
         <v>83</v>
@@ -2016,10 +2053,10 @@
         <v>113</v>
       </c>
       <c r="J36">
-        <v>0.947481940174467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>0.94748194017446696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2033,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>0.8114584628785311</v>
+        <v>0.81145846287853107</v>
       </c>
       <c r="F37" t="s">
         <v>81</v>
@@ -2048,10 +2085,10 @@
         <v>113</v>
       </c>
       <c r="J37">
-        <v>0.932359614748916</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>0.93235961474891604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2065,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>0.9716725549338512</v>
+        <v>0.97167255493385118</v>
       </c>
       <c r="F38" t="s">
         <v>84</v>
@@ -2080,10 +2117,10 @@
         <v>113</v>
       </c>
       <c r="J38">
-        <v>0.9381485695777985</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>0.93814856957779846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2097,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>0.9703846076810256</v>
+        <v>0.97038460768102563</v>
       </c>
       <c r="F39" t="s">
         <v>85</v>
@@ -2112,10 +2149,10 @@
         <v>113</v>
       </c>
       <c r="J39">
-        <v>0.9766239643528511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>0.97662396435285115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2129,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>0.9095485893039192</v>
+        <v>0.90954858930391924</v>
       </c>
       <c r="F40" t="s">
         <v>86</v>
@@ -2144,10 +2181,10 @@
         <v>113</v>
       </c>
       <c r="J40">
-        <v>0.9877078024511589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>0.98770780245115886</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2161,7 +2198,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>0.8694897615128954</v>
+        <v>0.86948976151289536</v>
       </c>
       <c r="F41" t="s">
         <v>82</v>
@@ -2176,10 +2213,10 @@
         <v>113</v>
       </c>
       <c r="J41">
-        <v>0.9915458937198067</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>0.99154589371980673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2193,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>0.8473829127288334</v>
+        <v>0.84738291272883337</v>
       </c>
       <c r="F42" t="s">
         <v>83</v>
@@ -2208,10 +2245,10 @@
         <v>113</v>
       </c>
       <c r="J42">
-        <v>0.9777661064425771</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>0.97776610644257711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -2225,7 +2262,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>0.8438587085976432</v>
+        <v>0.84385870859764323</v>
       </c>
       <c r="F43" t="s">
         <v>87</v>
@@ -2240,10 +2277,10 @@
         <v>113</v>
       </c>
       <c r="J43">
-        <v>0.8380139069335163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>0.83801390693351629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2257,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>0.8700551207303344</v>
+        <v>0.87005512073033442</v>
       </c>
       <c r="F44" t="s">
         <v>88</v>
@@ -2272,42 +2309,42 @@
         <v>113</v>
       </c>
       <c r="J44">
-        <v>0.8882664727314979</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="2" customFormat="1">
-      <c r="A45" s="1" t="s">
+        <v>0.88826647273149795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="6">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="6">
         <v>2</v>
       </c>
-      <c r="E45" s="2">
-        <v>0.7162701412060168</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="6">
+        <v>0.71627014120601684</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0.9757869249394673</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="I45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.97578692493946728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2321,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.7855746701529804</v>
+        <v>0.78557467015298044</v>
       </c>
       <c r="F46" t="s">
         <v>90</v>
@@ -2336,10 +2373,10 @@
         <v>113</v>
       </c>
       <c r="J46">
-        <v>0.9539184315041748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>0.95391843150417477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2353,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>0.8112660746879747</v>
+        <v>0.81126607468797474</v>
       </c>
       <c r="F47" t="s">
         <v>90</v>
@@ -2368,10 +2405,10 @@
         <v>113</v>
       </c>
       <c r="J47">
-        <v>0.9054851680449132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>0.90548516804491319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2385,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>0.7409960691552508</v>
+        <v>0.74099606915525085</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -2400,42 +2437,42 @@
         <v>113</v>
       </c>
       <c r="J48">
-        <v>0.9177195340501793</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1">
-      <c r="A49" s="1" t="s">
+        <v>0.91771953405017925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>6</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>8</v>
       </c>
-      <c r="E49" s="2">
-        <v>0.6007973455632994</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="4">
+        <v>0.60079734556329945</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0.875328157429978</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="I49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.87532815742997805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2449,7 +2486,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>0.795065214892114</v>
+        <v>0.79506521489211401</v>
       </c>
       <c r="F50" t="s">
         <v>90</v>
@@ -2464,10 +2501,10 @@
         <v>113</v>
       </c>
       <c r="J50">
-        <v>0.8913324708926261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>0.89133247089262613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2481,7 +2518,7 @@
         <v>6</v>
       </c>
       <c r="E51">
-        <v>0.7235137871607065</v>
+        <v>0.72351378716070647</v>
       </c>
       <c r="F51" t="s">
         <v>93</v>
@@ -2496,10 +2533,10 @@
         <v>113</v>
       </c>
       <c r="J51">
-        <v>0.9003274332580131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>0.90032743325801312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2513,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>0.8852373629644328</v>
+        <v>0.88523736296443278</v>
       </c>
       <c r="F52" t="s">
         <v>94</v>
@@ -2528,74 +2565,74 @@
         <v>114</v>
       </c>
       <c r="J52">
-        <v>0.9118699165706705</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1">
-      <c r="A53" s="1" t="s">
+        <v>0.91186991657067051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="6">
         <v>2</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="6">
         <v>5</v>
       </c>
-      <c r="E53" s="2">
-        <v>0.6285865681629867</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" s="6">
+        <v>0.62858656816298675</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="G53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J53" s="2">
+      <c r="I53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="6">
         <v>0.931936865049242</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="2" customFormat="1">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
         <v>2</v>
       </c>
-      <c r="E54" s="2">
-        <v>0.5724519089585989</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="E54" s="6">
+        <v>0.57245190895859888</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="G54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0.8972837683903159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0.89728376839031587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2609,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>0.7012808013336478</v>
+        <v>0.70128080133364779</v>
       </c>
       <c r="F55" t="s">
         <v>95</v>
@@ -2624,10 +2661,10 @@
         <v>113</v>
       </c>
       <c r="J55">
-        <v>0.9164320755311275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>0.91643207553112749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2641,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.6451387115514655</v>
+        <v>0.64513871155146552</v>
       </c>
       <c r="F56" t="s">
         <v>96</v>
@@ -2656,42 +2693,42 @@
         <v>113</v>
       </c>
       <c r="J56">
-        <v>0.8387021217966382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1">
-      <c r="A57" s="1" t="s">
+        <v>0.83870212179663817</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="6">
         <v>6</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="6">
         <v>5</v>
       </c>
-      <c r="E57" s="2">
-        <v>0.7699857738723133</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="E57" s="6">
+        <v>0.76998577387231326</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="2" t="s">
+      <c r="G57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0.9025971633818383</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="I57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0.90259716338183826</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -2705,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <v>0.8793475099438893</v>
+        <v>0.87934750994388933</v>
       </c>
       <c r="F58" t="s">
         <v>98</v>
@@ -2720,10 +2757,10 @@
         <v>113</v>
       </c>
       <c r="J58">
-        <v>0.9272302591922845</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>0.92723025919228452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -2737,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <v>0.6039320973209683</v>
+        <v>0.60393209732096831</v>
       </c>
       <c r="F59" t="s">
         <v>99</v>
@@ -2752,10 +2789,10 @@
         <v>113</v>
       </c>
       <c r="J59">
-        <v>0.9149748805045089</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>0.91497488050450893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -2769,7 +2806,7 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <v>0.7407444008871535</v>
+        <v>0.74074440088715354</v>
       </c>
       <c r="F60" t="s">
         <v>100</v>
@@ -2784,71 +2821,69 @@
         <v>113</v>
       </c>
       <c r="J60">
-        <v>0.8159728910290708</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1">
-      <c r="A61" s="1" t="s">
+        <v>0.81597289102907078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>5</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>4</v>
       </c>
-      <c r="E61" s="2">
-        <v>0.6663738515990698</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="E61" s="4">
+        <v>0.66637385159906981</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="G61" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0.8165728077232501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="3" t="s">
+      <c r="I61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0.81657280772325014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2868,7 +2903,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -2885,7 +2920,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -2902,7 +2937,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2919,7 +2954,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2939,7 +2974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
@@ -2956,7 +2991,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -2973,7 +3008,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -2990,7 +3025,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -3007,7 +3042,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -3024,7 +3059,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -3041,7 +3076,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -3058,7 +3093,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3075,7 +3110,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -3092,7 +3127,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -3109,7 +3144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -3126,7 +3161,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -3143,7 +3178,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -3160,7 +3195,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -3177,7 +3212,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -3197,7 +3232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -3214,7 +3249,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -3231,7 +3266,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -3248,7 +3283,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -3265,7 +3300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -3282,7 +3317,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -3299,7 +3334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
@@ -3316,7 +3351,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>91</v>
       </c>
@@ -3333,7 +3368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
@@ -3350,7 +3385,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -3373,22 +3408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3408,7 +3440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -3425,7 +3457,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -3442,7 +3474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -3459,7 +3491,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -3479,7 +3511,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -3496,7 +3528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
@@ -3513,7 +3545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -3533,7 +3565,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -3550,7 +3582,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
